--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_173.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_173.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,710 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.100000', '0:00:05.580000'), ('0:00:00.500000', '0:00:03.900000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D9" t="inlineStr">
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000'), ('0:00:30.020000', '0:00:32.120000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:01:11.700000', '0:01:18.400000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'C:min', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(49.0, 62.78)]</t>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(132.38, 134.6)]</t>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(64.22, 66.98)]</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(66.02, 68.98)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.511043, 10.664331)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
